--- a/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Crp-Olr1.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Crp-Olr1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="23">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -83,9 +83,6 @@
   </si>
   <si>
     <t>Olr1</t>
-  </si>
-  <si>
-    <t>ECs</t>
   </si>
 </sst>
 </file>
@@ -443,7 +440,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T3"/>
+  <dimension ref="A1:T2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -522,7 +519,7 @@
         <v>22</v>
       </c>
       <c r="D2" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E2">
         <v>1</v>
@@ -543,96 +540,34 @@
         <v>1</v>
       </c>
       <c r="K2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M2">
-        <v>22.494585</v>
+        <v>0.006582333333333333</v>
       </c>
       <c r="N2">
-        <v>67.483755</v>
+        <v>0.019747</v>
       </c>
       <c r="O2">
-        <v>0.9997074670288958</v>
+        <v>1</v>
       </c>
       <c r="P2">
-        <v>0.9997074670288958</v>
+        <v>1</v>
       </c>
       <c r="Q2">
-        <v>1.723692564795</v>
+        <v>0.0005043844563333333</v>
       </c>
       <c r="R2">
-        <v>15.513233083155</v>
+        <v>0.004539460107</v>
       </c>
       <c r="S2">
-        <v>0.9997074670288958</v>
+        <v>1</v>
       </c>
       <c r="T2">
-        <v>0.9997074670288958</v>
-      </c>
-    </row>
-    <row r="3" spans="1:20">
-      <c r="A3" t="s">
-        <v>20</v>
-      </c>
-      <c r="B3" t="s">
-        <v>21</v>
-      </c>
-      <c r="C3" t="s">
-        <v>22</v>
-      </c>
-      <c r="D3" t="s">
-        <v>20</v>
-      </c>
-      <c r="E3">
-        <v>1</v>
-      </c>
-      <c r="F3">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G3">
-        <v>0.076627</v>
-      </c>
-      <c r="H3">
-        <v>0.229881</v>
-      </c>
-      <c r="I3">
-        <v>1</v>
-      </c>
-      <c r="J3">
-        <v>1</v>
-      </c>
-      <c r="K3">
-        <v>1</v>
-      </c>
-      <c r="L3">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M3">
-        <v>0.006582333333333333</v>
-      </c>
-      <c r="N3">
-        <v>0.019747</v>
-      </c>
-      <c r="O3">
-        <v>0.0002925329711042251</v>
-      </c>
-      <c r="P3">
-        <v>0.0002925329711042251</v>
-      </c>
-      <c r="Q3">
-        <v>0.0005043844563333333</v>
-      </c>
-      <c r="R3">
-        <v>0.004539460107</v>
-      </c>
-      <c r="S3">
-        <v>0.0002925329711042251</v>
-      </c>
-      <c r="T3">
-        <v>0.0002925329711042251</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
